--- a/Julho/07_Julho_-_Itamar.xlsx
+++ b/Julho/07_Julho_-_Itamar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Maio" sheetId="1" state="visible" r:id="rId2"/>
@@ -1499,7 +1499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="47">
   <si>
     <t xml:space="preserve">CAPITAL</t>
   </si>
@@ -1610,6 +1610,12 @@
   </si>
   <si>
     <t xml:space="preserve">COGN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMI3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUPY3</t>
   </si>
   <si>
     <t xml:space="preserve">CSNA3</t>
@@ -2092,9 +2098,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>724680</xdr:colOff>
+      <xdr:colOff>723600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2108,7 +2114,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1451520" cy="1289160"/>
+          <a:ext cx="1450440" cy="1288080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2134,9 +2140,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>724680</xdr:colOff>
+      <xdr:colOff>723600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2150,7 +2156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1451520" cy="1289160"/>
+          <a:ext cx="1450440" cy="1288080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2176,9 +2182,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>726120</xdr:colOff>
+      <xdr:colOff>725040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2192,7 +2198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1452960" cy="1289160"/>
+          <a:ext cx="1451880" cy="1288080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2218,9 +2224,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>724320</xdr:colOff>
+      <xdr:colOff>723960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2234,7 +2240,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1451160" cy="1289160"/>
+          <a:ext cx="1450800" cy="1288080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2260,9 +2266,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>724320</xdr:colOff>
+      <xdr:colOff>723240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2276,7 +2282,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1451160" cy="1289160"/>
+          <a:ext cx="1450080" cy="1288080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2302,9 +2308,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>724320</xdr:colOff>
+      <xdr:colOff>723240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2318,7 +2324,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1451160" cy="1289160"/>
+          <a:ext cx="1450080" cy="1288080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2344,9 +2350,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>724320</xdr:colOff>
+      <xdr:colOff>723240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2360,7 +2366,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1451160" cy="1289160"/>
+          <a:ext cx="1450080" cy="1288080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2386,9 +2392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>724320</xdr:colOff>
+      <xdr:colOff>723240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2402,7 +2408,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1451160" cy="1289160"/>
+          <a:ext cx="1450080" cy="1288080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2425,7 +2431,7 @@
   <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4305,7 +4311,7 @@
   </sheetPr>
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -6186,8 +6192,8 @@
   </sheetPr>
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6249,7 +6255,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="4" t="n">
         <f aca="false">SUM(L8:L17)</f>
-        <v>0.260147483006003</v>
+        <v>0.204166326622253</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>1</v>
@@ -6319,13 +6325,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>163630.683908886</v>
+        <v>156361.507063623</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.636306839088856</v>
+        <v>0.563615070636229</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -6462,14 +6468,14 @@
         <v>0.3</v>
       </c>
       <c r="F8" s="19" t="n">
-        <v>7.12</v>
+        <v>7.1</v>
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>54.7122569482837</v>
+        <v>54.8663759819408</v>
       </c>
       <c r="H8" s="21" t="n">
-        <v>54.7122569482837</v>
+        <v>54.8663759819408</v>
       </c>
       <c r="I8" s="22" t="n">
         <f aca="false">H8*F8*100</f>
@@ -6480,15 +6486,15 @@
         <v>0.3</v>
       </c>
       <c r="K8" s="28" t="n">
-        <v>10.14</v>
+        <v>9.26</v>
       </c>
       <c r="L8" s="24" t="n">
         <f aca="false">IFERROR((K8/F8-1)*J8,0)</f>
-        <v>0.127247191011236</v>
+        <v>0.0912676056338028</v>
       </c>
       <c r="M8" s="25" t="n">
         <f aca="false">IFERROR(L8/J8,0)</f>
-        <v>0.424157303370787</v>
+        <v>0.304225352112676</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -6531,18 +6537,18 @@
       </c>
       <c r="J9" s="23" t="n">
         <f aca="false">I9/$E$4</f>
-        <v>0.08</v>
+        <v>0.0799999999999999</v>
       </c>
       <c r="K9" s="28" t="n">
-        <v>35.32</v>
+        <v>33.74</v>
       </c>
       <c r="L9" s="24" t="n">
         <f aca="false">IFERROR((K9/F9-1)*J9,0)</f>
-        <v>0.00788802488335925</v>
+        <v>0.00395645412130638</v>
       </c>
       <c r="M9" s="25" t="n">
         <f aca="false">IFERROR(L9/J9,0)</f>
-        <v>0.0986003110419906</v>
+        <v>0.0494556765163299</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -6588,15 +6594,15 @@
         <v>0.1</v>
       </c>
       <c r="K10" s="28" t="n">
-        <v>10.42</v>
+        <v>10.67</v>
       </c>
       <c r="L10" s="24" t="n">
         <f aca="false">IFERROR((K10/F10-1)*J10,0)</f>
-        <v>0.0086548488008342</v>
+        <v>0.0112617309697602</v>
       </c>
       <c r="M10" s="25" t="n">
         <f aca="false">IFERROR(L10/J10,0)</f>
-        <v>0.086548488008342</v>
+        <v>0.112617309697602</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -6642,15 +6648,15 @@
         <v>0.12</v>
       </c>
       <c r="K11" s="28" t="n">
-        <v>4.8</v>
+        <v>4.98</v>
       </c>
       <c r="L11" s="24" t="n">
         <f aca="false">IFERROR((K11/F11-1)*J11,0)</f>
-        <v>0.00972972972972971</v>
+        <v>0.0145945945945946</v>
       </c>
       <c r="M11" s="25" t="n">
         <f aca="false">IFERROR(L11/J11,0)</f>
-        <v>0.0810810810810809</v>
+        <v>0.121621621621622</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -6696,15 +6702,15 @@
         <v>0.08</v>
       </c>
       <c r="K12" s="28" t="n">
-        <v>14.89</v>
+        <v>14.26</v>
       </c>
       <c r="L12" s="24" t="n">
         <f aca="false">IFERROR((K12/F12-1)*J12,0)</f>
-        <v>0.00791143911439114</v>
+        <v>0.00419188191881918</v>
       </c>
       <c r="M12" s="25" t="n">
         <f aca="false">IFERROR(L12/J12,0)</f>
-        <v>0.0988929889298893</v>
+        <v>0.0523985239852398</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -6750,15 +6756,15 @@
         <v>0.12</v>
       </c>
       <c r="K13" s="28" t="n">
-        <v>9.6</v>
+        <v>8.28</v>
       </c>
       <c r="L13" s="24" t="n">
         <f aca="false">IFERROR((K13/F13-1)*J13,0)</f>
-        <v>0.0542813918305597</v>
+        <v>0.0303177004538577</v>
       </c>
       <c r="M13" s="25" t="n">
         <f aca="false">IFERROR(L13/J13,0)</f>
-        <v>0.452344931921331</v>
+        <v>0.252647503782148</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -6773,7 +6779,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="26" t="n">
@@ -6804,15 +6810,15 @@
         <v>0.2</v>
       </c>
       <c r="K14" s="28" t="n">
-        <v>28.33</v>
+        <v>28.81</v>
       </c>
       <c r="L14" s="24" t="n">
         <f aca="false">IFERROR((K14/F14-1)*J14,0)</f>
-        <v>0.044434857635893</v>
+        <v>0.0485763589301122</v>
       </c>
       <c r="M14" s="25" t="n">
         <f aca="false">IFERROR(L14/J14,0)</f>
-        <v>0.222174288179465</v>
+        <v>0.242881794650561</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -6932,11 +6938,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>163630.683908886</v>
+        <v>156361.507063623</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.260147483006003</v>
+        <v>0.204166326622253</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -8018,8 +8024,8 @@
   </sheetPr>
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8081,7 +8087,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="4" t="n">
         <f aca="false">SUM(L8:L17)</f>
-        <v>0.0579529670961253</v>
+        <v>-0.0416248261148599</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>1</v>
@@ -8143,21 +8149,21 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Julho!F4</f>
-        <v>163630.683908886</v>
+        <v>156361.507063623</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
-        <v>83516</v>
+        <v>156361.507063623</v>
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>168470.683908886</v>
+        <v>149852.986521042</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.684706839088856</v>
+        <v>0.498529865210422</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -8281,46 +8287,47 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="16" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="19" t="n">
-        <v>16.71</v>
+        <v>5.25</v>
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>9.79238084433786</v>
+        <v>59.5662884051897</v>
       </c>
       <c r="H8" s="21" t="n">
-        <v>6</v>
+        <f aca="false">G8</f>
+        <v>59.5662884051897</v>
       </c>
       <c r="I8" s="22" t="n">
         <f aca="false">H8*F8*100</f>
-        <v>10026</v>
+        <v>31272.3014127246</v>
       </c>
       <c r="J8" s="23" t="n">
         <f aca="false">I8/$E$4</f>
-        <v>0.120048852914412</v>
+        <v>0.2</v>
       </c>
       <c r="K8" s="28" t="n">
-        <v>15.86</v>
+        <v>5.09</v>
       </c>
       <c r="L8" s="24" t="n">
         <f aca="false">IFERROR((K8/F8-1)*J8,0)</f>
-        <v>-0.00610661430145123</v>
+        <v>-0.00609523809523811</v>
       </c>
       <c r="M8" s="25" t="n">
         <f aca="false">IFERROR(L8/J8,0)</f>
-        <v>-0.0508677438659486</v>
+        <v>-0.0304761904761905</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -8342,39 +8349,40 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F9" s="19" t="n">
-        <v>35.25</v>
+        <v>10.7</v>
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>4.64200521727335</v>
+        <v>29.2264499184342</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>3</v>
+        <f aca="false">G9</f>
+        <v>29.2264499184342</v>
       </c>
       <c r="I9" s="22" t="n">
         <f aca="false">H9*F9*100</f>
-        <v>10575</v>
+        <v>31272.3014127246</v>
       </c>
       <c r="J9" s="23" t="n">
         <f aca="false">I9/$E$4</f>
-        <v>0.126622443603621</v>
+        <v>0.2</v>
       </c>
       <c r="K9" s="28" t="n">
-        <v>42.95</v>
+        <v>10.21</v>
       </c>
       <c r="L9" s="24" t="n">
         <f aca="false">IFERROR((K9/F9-1)*J9,0)</f>
-        <v>0.0276593706595144</v>
+        <v>-0.00915887850467287</v>
       </c>
       <c r="M9" s="25" t="n">
         <f aca="false">IFERROR(L9/J9,0)</f>
-        <v>0.218439716312057</v>
+        <v>-0.0457943925233644</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -8396,39 +8404,40 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" s="18" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F10" s="19" t="n">
-        <v>9.89</v>
+        <v>8.44</v>
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>14.8905576863495</v>
+        <v>18.5262449127515</v>
       </c>
       <c r="H10" s="21" t="n">
-        <v>10</v>
+        <f aca="false">G10</f>
+        <v>18.5262449127515</v>
       </c>
       <c r="I10" s="22" t="n">
         <f aca="false">H10*F10*100</f>
-        <v>9890</v>
+        <v>15636.1507063623</v>
       </c>
       <c r="J10" s="23" t="n">
         <f aca="false">I10/$E$4</f>
-        <v>0.118420422434025</v>
+        <v>0.1</v>
       </c>
       <c r="K10" s="28" t="n">
-        <v>10.19</v>
+        <v>7.4</v>
       </c>
       <c r="L10" s="24" t="n">
         <f aca="false">IFERROR((K10/F10-1)*J10,0)</f>
-        <v>0.00359212605967716</v>
+        <v>-0.0123222748815166</v>
       </c>
       <c r="M10" s="25" t="n">
         <f aca="false">IFERROR(L10/J10,0)</f>
-        <v>0.0303336703741151</v>
+        <v>-0.123222748815166</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -8450,39 +8459,40 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E11" s="18" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F11" s="19" t="n">
-        <v>43.47</v>
+        <v>13.39</v>
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>3.38779883869328</v>
+        <v>11.677483723945</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>2</v>
+        <f aca="false">G11</f>
+        <v>11.677483723945</v>
       </c>
       <c r="I11" s="22" t="n">
         <f aca="false">H11*F11*100</f>
-        <v>8694</v>
+        <v>15636.1507063623</v>
       </c>
       <c r="J11" s="23" t="n">
         <f aca="false">I11/$E$4</f>
-        <v>0.104099813209445</v>
+        <v>0.1</v>
       </c>
       <c r="K11" s="28" t="n">
-        <v>48.33</v>
+        <v>12.92</v>
       </c>
       <c r="L11" s="24" t="n">
         <f aca="false">IFERROR((K11/F11-1)*J11,0)</f>
-        <v>0.0116384884333541</v>
+        <v>-0.00351008215085885</v>
       </c>
       <c r="M11" s="25" t="n">
         <f aca="false">IFERROR(L11/J11,0)</f>
-        <v>0.111801242236025</v>
+        <v>-0.0351008215085885</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -8504,39 +8514,40 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E12" s="18" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F12" s="19" t="n">
-        <v>29</v>
+        <v>14.32</v>
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>4.51394990093477</v>
+        <v>10.9190996552809</v>
       </c>
       <c r="H12" s="21" t="n">
-        <v>3</v>
+        <f aca="false">G12</f>
+        <v>10.9190996552809</v>
       </c>
       <c r="I12" s="22" t="n">
         <f aca="false">H12*F12*100</f>
-        <v>8700</v>
+        <v>15636.1507063623</v>
       </c>
       <c r="J12" s="23" t="n">
         <f aca="false">I12/$E$4</f>
-        <v>0.104171655730638</v>
+        <v>0.1</v>
       </c>
       <c r="K12" s="28" t="n">
-        <v>34.66</v>
+        <v>13.91</v>
       </c>
       <c r="L12" s="24" t="n">
         <f aca="false">IFERROR((K12/F12-1)*J12,0)</f>
-        <v>0.0203314334977729</v>
+        <v>-0.00286312849162011</v>
       </c>
       <c r="M12" s="25" t="n">
         <f aca="false">IFERROR(L12/J12,0)</f>
-        <v>0.195172413793103</v>
+        <v>-0.0286312849162011</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -8558,39 +8569,40 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E13" s="18" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="19" t="n">
-        <v>18.9</v>
+        <v>17.92</v>
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>7.79193732899455</v>
+        <v>8.72553052810396</v>
       </c>
       <c r="H13" s="21" t="n">
-        <v>5</v>
+        <f aca="false">G13</f>
+        <v>8.72553052810396</v>
       </c>
       <c r="I13" s="22" t="n">
         <f aca="false">H13*F13*100</f>
-        <v>9450</v>
+        <v>15636.1507063623</v>
       </c>
       <c r="J13" s="23" t="n">
         <f aca="false">I13/$E$4</f>
-        <v>0.113151970879831</v>
+        <v>0.1</v>
       </c>
       <c r="K13" s="28" t="n">
-        <v>19.85</v>
+        <v>17.43</v>
       </c>
       <c r="L13" s="24" t="n">
         <f aca="false">IFERROR((K13/F13-1)*J13,0)</f>
-        <v>0.00568753292782224</v>
+        <v>-0.00273437500000001</v>
       </c>
       <c r="M13" s="25" t="n">
         <f aca="false">IFERROR(L13/J13,0)</f>
-        <v>0.0502645502645505</v>
+        <v>-0.0273437500000001</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -8612,39 +8624,40 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E14" s="18" t="n">
-        <v>0.07</v>
+        <v>0.2</v>
       </c>
       <c r="F14" s="19" t="n">
-        <v>10.76</v>
+        <v>28.74</v>
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>10.6451188416561</v>
+        <v>10.8811069633697</v>
       </c>
       <c r="H14" s="21" t="n">
-        <v>7</v>
+        <f aca="false">G14</f>
+        <v>10.8811069633697</v>
       </c>
       <c r="I14" s="22" t="n">
         <f aca="false">H14*F14*100</f>
-        <v>7532</v>
+        <v>31272.3014127246</v>
       </c>
       <c r="J14" s="23" t="n">
         <f aca="false">I14/$E$4</f>
-        <v>0.0901863116049619</v>
+        <v>0.2</v>
       </c>
       <c r="K14" s="28" t="n">
-        <v>11.85</v>
+        <v>28.03</v>
       </c>
       <c r="L14" s="24" t="n">
         <f aca="false">IFERROR((K14/F14-1)*J14,0)</f>
-        <v>0.00913597394511231</v>
+        <v>-0.00494084899095335</v>
       </c>
       <c r="M14" s="25" t="n">
         <f aca="false">IFERROR(L14/J14,0)</f>
-        <v>0.101301115241636</v>
+        <v>-0.0247042449547668</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -8659,46 +8672,38 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="18" t="n">
-        <v>0.07</v>
-      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="19" t="n">
         <v>12.89</v>
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>8.88607282670442</v>
+        <v>0</v>
       </c>
       <c r="H15" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" s="22" t="n">
-        <f aca="false">H15*F15*100</f>
-        <v>6445</v>
-      </c>
+        <f aca="false">G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="22"/>
       <c r="J15" s="23" t="n">
         <f aca="false">I15/$E$4</f>
-        <v>0.0771708415153982</v>
-      </c>
-      <c r="K15" s="28" t="n">
-        <v>12.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K15" s="28"/>
       <c r="L15" s="24" t="n">
         <f aca="false">IFERROR((K15/F15-1)*J15,0)</f>
-        <v>-0.00257435700943531</v>
+        <v>-0</v>
       </c>
       <c r="M15" s="25" t="n">
         <f aca="false">IFERROR(L15/J15,0)</f>
-        <v>-0.0333591931730023</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -8713,46 +8718,38 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="18" t="n">
-        <v>0.07</v>
-      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="19" t="n">
         <v>22.7</v>
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>5.04588012053832</v>
+        <v>0</v>
       </c>
       <c r="H16" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" s="22" t="n">
-        <f aca="false">H16*F16*100</f>
-        <v>6810</v>
-      </c>
+        <f aca="false">G16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="22"/>
       <c r="J16" s="23" t="n">
         <f aca="false">I16/$E$4</f>
-        <v>0.0815412615546722</v>
-      </c>
-      <c r="K16" s="28" t="n">
-        <v>21.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K16" s="28"/>
       <c r="L16" s="24" t="n">
         <f aca="false">IFERROR((K16/F16-1)*J16,0)</f>
-        <v>-0.00520858278653192</v>
+        <v>-0</v>
       </c>
       <c r="M16" s="25" t="n">
         <f aca="false">IFERROR(L16/J16,0)</f>
-        <v>-0.0638766519823788</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -8767,46 +8764,38 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="18" t="n">
-        <v>0.08</v>
-      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="19" t="n">
         <v>53.94</v>
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.4268547854488</v>
+        <v>0</v>
       </c>
       <c r="H17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="22" t="n">
-        <f aca="false">H17*F17*100</f>
-        <v>5394</v>
-      </c>
+        <f aca="false">G17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="22"/>
       <c r="J17" s="23" t="n">
         <f aca="false">I17/$E$4</f>
-        <v>0.0645864265529958</v>
-      </c>
-      <c r="K17" s="28" t="n">
-        <v>48.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K17" s="28"/>
       <c r="L17" s="24" t="n">
         <f aca="false">IFERROR((K17/F17-1)*J17,0)</f>
-        <v>-0.00620240432970928</v>
+        <v>-0</v>
       </c>
       <c r="M17" s="25" t="n">
         <f aca="false">IFERROR(L17/J17,0)</f>
-        <v>-0.0960326288468669</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -8831,7 +8820,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>163630.683908886</v>
+        <v>156361.507063623</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -8839,11 +8828,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>168470.683908886</v>
+        <v>149852.986521042</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0295788044416845</v>
+        <v>-0.0416248261148601</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -10050,7 +10039,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Agosto!F4</f>
-        <v>168470.683908886</v>
+        <v>149852.986521042</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -10058,13 +10047,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>173310.683908886</v>
+        <v>154692.986521042</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.733106839088856</v>
+        <v>0.546929865210422</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -10195,7 +10184,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0.1</v>
@@ -10205,7 +10194,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>10.082027762351</v>
+        <v>8.96786274811743</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -10249,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0.1</v>
@@ -10259,7 +10248,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>4.77931018181236</v>
+        <v>4.25114855378843</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -10303,7 +10292,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.09</v>
@@ -10313,7 +10302,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>15.3310025801817</v>
+        <v>13.6367732931181</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -10357,7 +10346,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>0.09</v>
@@ -10367,7 +10356,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>3.48800587803076</v>
+        <v>3.10254630478348</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -10411,7 +10400,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>0.08</v>
@@ -10421,7 +10410,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>4.64746714231409</v>
+        <v>4.13387549023565</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -10465,7 +10454,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>0.09</v>
@@ -10475,7 +10464,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>8.02241351947074</v>
+        <v>7.13585650100201</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -10519,7 +10508,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>0.07</v>
@@ -10529,7 +10518,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>10.959988730132</v>
+        <v>9.74880023835777</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -10583,7 +10572,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>9.14891223710007</v>
+        <v>8.13786583124356</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -10627,7 +10616,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>0.07</v>
@@ -10637,7 +10626,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>5.19513122185991</v>
+        <v>4.62101720549469</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -10691,7 +10680,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.49863824855596</v>
+        <v>2.22251370442777</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -10738,7 +10727,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>168470.683908886</v>
+        <v>149852.986521042</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -10746,11 +10735,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>173310.683908886</v>
+        <v>154692.986521042</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0287290339642572</v>
+        <v>0.0322983219244708</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -11957,7 +11946,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Setembro!F4</f>
-        <v>173310.683908886</v>
+        <v>154692.986521042</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -11965,13 +11954,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>178150.683908886</v>
+        <v>159532.986521042</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.781506839088856</v>
+        <v>0.595329865210422</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -12102,7 +12091,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0.1</v>
@@ -12112,7 +12101,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>10.3716746803642</v>
+        <v>9.25750966613059</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -12156,7 +12145,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0.1</v>
@@ -12166,7 +12155,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>4.91661514635136</v>
+        <v>4.38845351832744</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -12210,7 +12199,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.09</v>
@@ -12220,7 +12209,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>15.7714474740139</v>
+        <v>14.0772181869503</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -12264,7 +12253,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>0.09</v>
@@ -12274,7 +12263,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>3.58821291736823</v>
+        <v>3.20275334412096</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -12318,7 +12307,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>0.08</v>
@@ -12328,7 +12317,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>4.7809843836934</v>
+        <v>4.26739273161496</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -12372,7 +12361,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>0.09</v>
@@ -12382,7 +12371,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>8.25288970994693</v>
+        <v>7.3663326914782</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -12426,7 +12415,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>0.07</v>
@@ -12436,7 +12425,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>11.2748586186078</v>
+        <v>10.0636701268336</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -12490,7 +12479,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>9.41175164749573</v>
+        <v>8.40070524163922</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -12534,7 +12523,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>0.07</v>
@@ -12544,7 +12533,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>5.34438232318149</v>
+        <v>4.77026830681628</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -12598,7 +12587,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.57042171166312</v>
+        <v>2.29429716753492</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -12645,7 +12634,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>173310.683908886</v>
+        <v>154692.986521042</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -12653,11 +12642,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>178150.683908886</v>
+        <v>159532.986521042</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0279267261015745</v>
+        <v>0.0312877791608324</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -13864,7 +13853,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Outubro!F4</f>
-        <v>178150.683908886</v>
+        <v>159532.986521042</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -13872,13 +13861,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>182990.683908886</v>
+        <v>164372.986521042</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.829906839088856</v>
+        <v>0.643729865210422</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -14009,7 +13998,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0.1</v>
@@ -14019,7 +14008,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>10.6613215983774</v>
+        <v>9.54715658414376</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -14063,7 +14052,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0.1</v>
@@ -14073,7 +14062,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>5.05392011089037</v>
+        <v>4.52575848286645</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -14117,7 +14106,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.1</v>
@@ -14127,7 +14116,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>18.0132137420511</v>
+        <v>16.1307367564249</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -14171,7 +14160,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>0.1</v>
@@ -14181,7 +14170,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>4.09824439633967</v>
+        <v>3.66995598162048</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -14225,7 +14214,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>0.1</v>
@@ -14235,7 +14224,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>6.14312703134088</v>
+        <v>5.50113746624284</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -14279,7 +14268,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>0.1</v>
@@ -14289,7 +14278,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>9.42596211158125</v>
+        <v>8.4408987577271</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -14333,7 +14322,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>0.1</v>
@@ -14343,7 +14332,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>16.5567550101195</v>
+        <v>14.8264857361563</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -14397,7 +14386,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>13.8208443684163</v>
+        <v>12.3764923600498</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -14441,7 +14430,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>0.1</v>
@@ -14451,7 +14440,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>7.84804774929011</v>
+        <v>7.02788486876838</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -14505,7 +14494,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>3.30275646846284</v>
+        <v>2.9576007883026</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -14552,7 +14541,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>178150.683908886</v>
+        <v>159532.986521042</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -14560,11 +14549,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>182990.683908886</v>
+        <v>164372.986521042</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0271680124589104</v>
+        <v>0.0303385532080014</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -15771,7 +15760,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Novembro!F4</f>
-        <v>182990.683908886</v>
+        <v>164372.986521042</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -15779,13 +15768,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>188166.683908886</v>
+        <v>169548.986521042</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.881666839088856</v>
+        <v>0.695489865210422</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -15916,7 +15905,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0.1</v>
@@ -15926,7 +15915,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>10.9509685163905</v>
+        <v>9.83680350215692</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -15970,7 +15959,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0.1</v>
@@ -15980,7 +15969,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>5.19122507542938</v>
+        <v>4.66306344740545</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -16024,7 +16013,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.1</v>
@@ -16034,7 +16023,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>18.5025969574202</v>
+        <v>16.620119971794</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>13</v>
@@ -16078,7 +16067,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>0.1</v>
@@ -16088,7 +16077,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>4.20958555115909</v>
+        <v>3.78129713643989</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>3</v>
@@ -16132,7 +16121,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>0.1</v>
@@ -16142,7 +16131,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>6.31002358306502</v>
+        <v>5.66803401796697</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>4</v>
@@ -16186,7 +16175,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>0.1</v>
@@ -16196,7 +16185,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>9.6820467676659</v>
+        <v>8.69698341381176</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>7</v>
@@ -16240,7 +16229,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>0.1</v>
@@ -16250,7 +16239,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>17.0065691365135</v>
+        <v>15.2762998625504</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>12</v>
@@ -16304,7 +16293,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>14.1963292404101</v>
+        <v>12.7519772320436</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>10</v>
@@ -16348,7 +16337,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>0.1</v>
@@ -16358,7 +16347,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>8.06126360832095</v>
+        <v>7.24110072779922</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>5</v>
@@ -16412,7 +16401,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>3.39248579734679</v>
+        <v>3.04733011718654</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>3</v>
@@ -16459,7 +16448,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>182990.683908886</v>
+        <v>164372.986521042</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -16467,11 +16456,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>188166.683908886</v>
+        <v>169548.986521042</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.028285592957165</v>
+        <v>0.0314893591066887</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1"/>
